--- a/CheckList and TestCases.xlsx
+++ b/CheckList and TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplom\diplom_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E3D09-0F14-4649-98E1-0FF682D59BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813833F1-A4AA-4226-A23C-EDF5090964C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7A85012-1015-4CC9-BFD3-B3063BE90C24}"/>
   </bookViews>
@@ -928,54 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,6 +942,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,24 +1325,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1790,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B1990-635E-4C06-A037-B84BCC584509}">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C208" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,694 +1839,694 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="37" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="37" t="s">
         <v>139</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="37" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="37" t="s">
         <v>137</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="37" t="s">
         <v>137</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="21" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="21" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="23" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2562,147 +2562,147 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="22"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="22"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="22"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="37" t="s">
+      <c r="F61" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2714,149 +2714,149 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="37" t="s">
+      <c r="F64" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="F65" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="22"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="37" t="s">
+      <c r="F66" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="22"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="22"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F68" s="37" t="s">
+      <c r="F68" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="22"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="37" t="s">
+      <c r="F69" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="37" t="s">
+      <c r="F70" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="F71" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="15" t="s">
         <v>82</v>
       </c>
@@ -2868,343 +2868,343 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="22"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="37" t="s">
+      <c r="F77" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="22"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F78" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="22"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="37" t="s">
+      <c r="F79" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="22"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F80" s="37" t="s">
+      <c r="F80" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="22"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="37" t="s">
+      <c r="F81" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="22"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F82" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="37" t="s">
+      <c r="F83" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="22"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F85" s="37" t="s">
+      <c r="F85" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="22"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="35"/>
       <c r="D86" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="37" t="s">
+      <c r="E86" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="37" t="s">
+      <c r="F86" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="22"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E88" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="22"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="35"/>
       <c r="D89" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="22"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="22"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="30"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="23"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="34" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E93" s="36" t="s">
+      <c r="E93" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F93" s="36" t="s">
+      <c r="F93" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F94" s="37" t="s">
+      <c r="F94" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="22"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F95" s="37" t="s">
+      <c r="F95" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="22"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="35"/>
       <c r="D96" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E96" s="37" t="s">
+      <c r="E96" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="22"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="35"/>
       <c r="D97" s="5" t="s">
         <v>154</v>
       </c>
@@ -3216,267 +3216,267 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="22"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="35"/>
       <c r="D98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E98" s="37" t="s">
+      <c r="E98" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="22"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="35"/>
       <c r="D99" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="37" t="s">
+      <c r="E99" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F99" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="22"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="35"/>
       <c r="D100" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="37" t="s">
+      <c r="E100" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="22"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="35"/>
       <c r="D101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="37" t="s">
+      <c r="E101" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="22"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="35"/>
       <c r="D102" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E102" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="22"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="35"/>
       <c r="D103" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="22"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E104" s="37" t="s">
+      <c r="E104" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="37" t="s">
+      <c r="F104" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="22"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="35"/>
       <c r="D105" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="22"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="35"/>
       <c r="D106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F106" s="37" t="s">
+      <c r="F106" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="22"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="35"/>
       <c r="D107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="37" t="s">
+      <c r="E107" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F107" s="37" t="s">
+      <c r="F107" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="22"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E108" s="37" t="s">
+      <c r="E108" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F108" s="37" t="s">
+      <c r="F108" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="22"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="35"/>
       <c r="D109" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F109" s="40" t="s">
+      <c r="F109" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="22"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E110" s="37" t="s">
+      <c r="E110" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F110" s="37" t="s">
+      <c r="F110" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="30"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="23"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="36"/>
       <c r="D111" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E111" s="39" t="s">
+      <c r="E111" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F111" s="39" t="s">
+      <c r="F111" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E112" s="36" t="s">
+      <c r="E112" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F112" s="36" t="s">
+      <c r="F112" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="22"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="35"/>
       <c r="D113" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E113" s="37" t="s">
+      <c r="E113" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F113" s="37" t="s">
+      <c r="F113" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="22"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="35"/>
       <c r="D114" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E114" s="37" t="s">
+      <c r="E114" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F114" s="37" t="s">
+      <c r="F114" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="22"/>
+      <c r="A115" s="30"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="35"/>
       <c r="D115" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="37" t="s">
+      <c r="E115" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="37" t="s">
+      <c r="F115" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="22"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="35"/>
       <c r="D116" s="5" t="s">
         <v>154</v>
       </c>
@@ -3488,295 +3488,295 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="22"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="35"/>
       <c r="D117" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E117" s="37" t="s">
+      <c r="E117" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F117" s="37" t="s">
+      <c r="F117" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="22"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="35"/>
       <c r="D118" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E118" s="37" t="s">
+      <c r="E118" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F118" s="37" t="s">
+      <c r="F118" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="22"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="35"/>
       <c r="D119" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E119" s="37" t="s">
+      <c r="E119" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F119" s="37" t="s">
+      <c r="F119" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="22"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E120" s="37" t="s">
+      <c r="E120" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F120" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="22"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="35"/>
       <c r="D121" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E121" s="37" t="s">
+      <c r="E121" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F121" s="37" t="s">
+      <c r="F121" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="22"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="35"/>
       <c r="D122" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E122" s="37" t="s">
+      <c r="E122" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F122" s="37" t="s">
+      <c r="F122" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="22"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="35"/>
       <c r="D123" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E123" s="37" t="s">
+      <c r="E123" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="22"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E124" s="37" t="s">
+      <c r="E124" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F124" s="37" t="s">
+      <c r="F124" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="22"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="35"/>
       <c r="D125" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E125" s="37" t="s">
+      <c r="E125" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F125" s="37" t="s">
+      <c r="F125" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="22"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="35"/>
       <c r="D126" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E126" s="37" t="s">
+      <c r="E126" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F126" s="37" t="s">
+      <c r="F126" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="22"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E127" s="37" t="s">
+      <c r="E127" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F127" s="37" t="s">
+      <c r="F127" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="22"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="35"/>
       <c r="D128" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E128" s="40" t="s">
+      <c r="E128" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F128" s="40" t="s">
+      <c r="F128" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="35"/>
       <c r="D129" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E129" s="37" t="s">
+      <c r="E129" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F129" s="37" t="s">
+      <c r="F129" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="30"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="35"/>
       <c r="D130" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E130" s="37" t="s">
+      <c r="E130" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F130" s="37" t="s">
+      <c r="F130" s="21" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="35"/>
       <c r="D131" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E131" s="37" t="s">
+      <c r="E131" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F131" s="37" t="s">
+      <c r="F131" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="30"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="23"/>
+      <c r="A132" s="31"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="36"/>
       <c r="D132" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E132" s="39" t="s">
+      <c r="E132" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F132" s="39" t="s">
+      <c r="F132" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F133" s="36" t="s">
+      <c r="F133" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="22"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="35"/>
       <c r="D134" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E134" s="37" t="s">
+      <c r="E134" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F134" s="37" t="s">
+      <c r="F134" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="22"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="35"/>
       <c r="D135" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E135" s="37" t="s">
+      <c r="E135" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="22"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="35"/>
       <c r="D136" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E136" s="37" t="s">
+      <c r="E136" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F136" s="37" t="s">
+      <c r="F136" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="22"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="35"/>
       <c r="D137" s="5" t="s">
         <v>154</v>
       </c>
@@ -3788,295 +3788,295 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="22"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="35"/>
       <c r="D138" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E138" s="37" t="s">
+      <c r="E138" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F138" s="37" t="s">
+      <c r="F138" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="22"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="35"/>
       <c r="D139" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E139" s="37" t="s">
+      <c r="E139" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F139" s="37" t="s">
+      <c r="F139" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="22"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="35"/>
       <c r="D140" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E140" s="37" t="s">
+      <c r="E140" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F140" s="37" t="s">
+      <c r="F140" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="35"/>
       <c r="D141" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E141" s="37" t="s">
+      <c r="E141" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F141" s="37" t="s">
+      <c r="F141" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="22"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="35"/>
       <c r="D142" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E142" s="37" t="s">
+      <c r="E142" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F142" s="37" t="s">
+      <c r="F142" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="22"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="35"/>
       <c r="D143" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E143" s="37" t="s">
+      <c r="E143" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F143" s="37" t="s">
+      <c r="F143" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="22"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="35"/>
       <c r="D144" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E144" s="37" t="s">
+      <c r="E144" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F144" s="37" t="s">
+      <c r="F144" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="22"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="35"/>
       <c r="D145" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="37" t="s">
+      <c r="E145" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F145" s="37" t="s">
+      <c r="F145" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="22"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="35"/>
       <c r="D146" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="37" t="s">
+      <c r="E146" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="37" t="s">
+      <c r="F146" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="22"/>
+      <c r="A147" s="30"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="35"/>
       <c r="D147" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E147" s="37" t="s">
+      <c r="E147" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F147" s="37" t="s">
+      <c r="F147" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="22"/>
+      <c r="A148" s="30"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="35"/>
       <c r="D148" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E148" s="37" t="s">
+      <c r="E148" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F148" s="37" t="s">
+      <c r="F148" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="22"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="35"/>
       <c r="D149" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E149" s="37" t="s">
+      <c r="E149" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F149" s="37" t="s">
+      <c r="F149" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="22"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E150" s="37" t="s">
+      <c r="E150" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F150" s="37" t="s">
+      <c r="F150" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="22"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E151" s="37" t="s">
+      <c r="E151" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F151" s="37" t="s">
+      <c r="F151" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="22"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="35"/>
       <c r="D152" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E152" s="37" t="s">
+      <c r="E152" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F152" s="37" t="s">
+      <c r="F152" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="30"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="23"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="36"/>
       <c r="D153" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E153" s="39" t="s">
+      <c r="E153" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E154" s="36" t="s">
+      <c r="E154" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F154" s="36" t="s">
+      <c r="F154" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="22"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="35"/>
       <c r="D155" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E155" s="37" t="s">
+      <c r="E155" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F155" s="37" t="s">
+      <c r="F155" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="22"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="35"/>
       <c r="D156" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E156" s="37" t="s">
+      <c r="E156" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F156" s="37" t="s">
+      <c r="F156" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="29"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="22"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="35"/>
       <c r="D157" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E157" s="37" t="s">
+      <c r="E157" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F157" s="37" t="s">
+      <c r="F157" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="29"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="22"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="35"/>
       <c r="D158" s="5" t="s">
         <v>154</v>
       </c>
@@ -4088,295 +4088,295 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="22"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="35"/>
       <c r="D159" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E159" s="37" t="s">
+      <c r="E159" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F159" s="37" t="s">
+      <c r="F159" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="22"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="35"/>
       <c r="D160" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E160" s="37" t="s">
+      <c r="E160" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F160" s="37" t="s">
+      <c r="F160" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="22"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="35"/>
       <c r="D161" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E161" s="37" t="s">
+      <c r="E161" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F161" s="37" t="s">
+      <c r="F161" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="22"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E162" s="37" t="s">
+      <c r="E162" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F162" s="37" t="s">
+      <c r="F162" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="22"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="35"/>
       <c r="D163" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E163" s="37" t="s">
+      <c r="E163" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F163" s="37" t="s">
+      <c r="F163" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="22"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="35"/>
       <c r="D164" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E164" s="37" t="s">
+      <c r="E164" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F164" s="37" t="s">
+      <c r="F164" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="22"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="35"/>
       <c r="D165" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E165" s="37" t="s">
+      <c r="E165" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F165" s="37" t="s">
+      <c r="F165" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="22"/>
+      <c r="A166" s="30"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="35"/>
       <c r="D166" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E166" s="37" t="s">
+      <c r="E166" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F166" s="37" t="s">
+      <c r="F166" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="22"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="35"/>
       <c r="D167" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E167" s="37" t="s">
+      <c r="E167" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F167" s="37" t="s">
+      <c r="F167" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="22"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="35"/>
       <c r="D168" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E168" s="37" t="s">
+      <c r="E168" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F168" s="37" t="s">
+      <c r="F168" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="22"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="35"/>
       <c r="D169" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E169" s="37" t="s">
+      <c r="E169" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F169" s="37" t="s">
+      <c r="F169" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="22"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="35"/>
       <c r="D170" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E170" s="37" t="s">
+      <c r="E170" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F170" s="37" t="s">
+      <c r="F170" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="22"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="35"/>
       <c r="D171" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E171" s="37" t="s">
+      <c r="E171" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F171" s="37" t="s">
+      <c r="F171" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="22"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E172" s="37" t="s">
+      <c r="E172" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F172" s="37" t="s">
+      <c r="F172" s="21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="22"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E173" s="37" t="s">
+      <c r="E173" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="37" t="s">
+      <c r="F173" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="30"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="23"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="36"/>
       <c r="D174" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E174" s="39" t="s">
+      <c r="E174" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F174" s="39" t="s">
+      <c r="F174" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E175" s="36" t="s">
+      <c r="E175" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F175" s="36" t="s">
+      <c r="F175" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="22"/>
+      <c r="A176" s="30"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E176" s="37" t="s">
+      <c r="E176" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F176" s="37" t="s">
+      <c r="F176" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="22"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E177" s="37" t="s">
+      <c r="E177" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F177" s="37" t="s">
+      <c r="F177" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="22"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="35"/>
       <c r="D178" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E178" s="37" t="s">
+      <c r="E178" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F178" s="37" t="s">
+      <c r="F178" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="22"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="35"/>
       <c r="D179" s="5" t="s">
         <v>154</v>
       </c>
@@ -4388,219 +4388,219 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="22"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="35"/>
       <c r="D180" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E180" s="37" t="s">
+      <c r="E180" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F180" s="37" t="s">
+      <c r="F180" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="29"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="22"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="35"/>
       <c r="D181" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="37" t="s">
+      <c r="E181" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F181" s="37" t="s">
+      <c r="F181" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="22"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="35"/>
       <c r="D182" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E182" s="37" t="s">
+      <c r="E182" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F182" s="37" t="s">
+      <c r="F182" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="22"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="35"/>
       <c r="D183" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E183" s="37" t="s">
+      <c r="E183" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F183" s="37" t="s">
+      <c r="F183" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="22"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="35"/>
       <c r="D184" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E184" s="37" t="s">
+      <c r="E184" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F184" s="37" t="s">
+      <c r="F184" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="29"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="22"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="35"/>
       <c r="D185" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E185" s="37" t="s">
+      <c r="E185" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F185" s="37" t="s">
+      <c r="F185" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="22"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="35"/>
       <c r="D186" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E186" s="37" t="s">
+      <c r="E186" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F186" s="37" t="s">
+      <c r="F186" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="22"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="35"/>
       <c r="D187" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E187" s="37" t="s">
+      <c r="E187" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F187" s="37" t="s">
+      <c r="F187" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="22"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="35"/>
       <c r="D188" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E188" s="37" t="s">
+      <c r="E188" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F188" s="37" t="s">
+      <c r="F188" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="22"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="35"/>
       <c r="D189" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E189" s="37" t="s">
+      <c r="E189" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F189" s="37" t="s">
+      <c r="F189" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="22"/>
+      <c r="A190" s="30"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="35"/>
       <c r="D190" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E190" s="37" t="s">
+      <c r="E190" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F190" s="37" t="s">
+      <c r="F190" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="22"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="35"/>
       <c r="D191" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E191" s="37" t="s">
+      <c r="E191" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F191" s="37" t="s">
+      <c r="F191" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="22"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="35"/>
       <c r="D192" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E192" s="37" t="s">
+      <c r="E192" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F192" s="37" t="s">
+      <c r="F192" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="22"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="35"/>
       <c r="D193" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E193" s="37" t="s">
+      <c r="E193" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F193" s="37" t="s">
+      <c r="F193" s="21" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="22"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="35"/>
       <c r="D194" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E194" s="37" t="s">
+      <c r="E194" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F194" s="37" t="s">
+      <c r="F194" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="35"/>
-      <c r="B195" s="34"/>
-      <c r="C195" s="24"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="40"/>
       <c r="D195" s="15" t="s">
         <v>103</v>
       </c>
@@ -4612,441 +4612,441 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B196" s="31" t="s">
+      <c r="B196" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D196" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E196" s="36" t="s">
+      <c r="E196" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F196" s="36" t="s">
+      <c r="F196" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="29"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="22"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="35"/>
       <c r="D197" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E197" s="37" t="s">
+      <c r="E197" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F197" s="37" t="s">
+      <c r="F197" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="22"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="35"/>
       <c r="D198" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E198" s="37" t="s">
+      <c r="E198" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F198" s="37" t="s">
+      <c r="F198" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="22"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="35"/>
       <c r="D199" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E199" s="37" t="s">
+      <c r="E199" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F199" s="37" t="s">
+      <c r="F199" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="22"/>
+      <c r="A200" s="30"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="35"/>
       <c r="D200" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E200" s="37" t="s">
+      <c r="E200" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F200" s="37" t="s">
+      <c r="F200" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="29"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="22"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="35"/>
       <c r="D201" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E201" s="37" t="s">
+      <c r="E201" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F201" s="37" t="s">
+      <c r="F201" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="22"/>
+      <c r="A202" s="30"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="35"/>
       <c r="D202" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E202" s="37" t="s">
+      <c r="E202" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F202" s="37" t="s">
+      <c r="F202" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="22"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="35"/>
       <c r="D203" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E203" s="37" t="s">
+      <c r="E203" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F203" s="37" t="s">
+      <c r="F203" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="22"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="35"/>
       <c r="D204" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E204" s="37" t="s">
+      <c r="E204" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F204" s="37" t="s">
+      <c r="F204" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="22"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="35"/>
       <c r="D205" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E205" s="37" t="s">
+      <c r="E205" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F205" s="37" t="s">
+      <c r="F205" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="22"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="35"/>
       <c r="D206" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E206" s="37" t="s">
+      <c r="E206" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F206" s="37" t="s">
+      <c r="F206" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="29"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="22"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="35"/>
       <c r="D207" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E207" s="37" t="s">
+      <c r="E207" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F207" s="37" t="s">
+      <c r="F207" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="29"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="22"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="35"/>
       <c r="D208" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="37" t="s">
+      <c r="E208" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F208" s="37" t="s">
+      <c r="F208" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="29"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="22"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="35"/>
       <c r="D209" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E209" s="37" t="s">
+      <c r="E209" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F209" s="37" t="s">
+      <c r="F209" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="29"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="22"/>
+      <c r="A210" s="30"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="35"/>
       <c r="D210" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E210" s="37" t="s">
+      <c r="E210" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F210" s="37" t="s">
+      <c r="F210" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="22"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="35"/>
       <c r="D211" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E211" s="37" t="s">
+      <c r="E211" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F211" s="37" t="s">
+      <c r="F211" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="22"/>
+      <c r="A212" s="30"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="35"/>
       <c r="D212" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E212" s="37" t="s">
+      <c r="E212" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="F212" s="37" t="s">
+      <c r="F212" s="21" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="22"/>
+      <c r="A213" s="30"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="35"/>
       <c r="D213" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E213" s="37" t="s">
+      <c r="E213" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F213" s="37" t="s">
+      <c r="F213" s="21" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="29"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="22"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="35"/>
       <c r="D214" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E214" s="37" t="s">
+      <c r="E214" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F214" s="37" t="s">
+      <c r="F214" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="22"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="35"/>
       <c r="D215" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E215" s="37" t="s">
+      <c r="E215" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F215" s="37" t="s">
+      <c r="F215" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="22"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E216" s="37" t="s">
+      <c r="E216" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F216" s="37" t="s">
+      <c r="F216" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="22"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="35"/>
       <c r="D217" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E217" s="37" t="s">
+      <c r="E217" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F217" s="37" t="s">
+      <c r="F217" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="22"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="35"/>
       <c r="D218" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E218" s="37" t="s">
+      <c r="E218" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F218" s="37" t="s">
+      <c r="F218" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="22"/>
+      <c r="A219" s="30"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="35"/>
       <c r="D219" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E219" s="37" t="s">
+      <c r="E219" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F219" s="37" t="s">
+      <c r="F219" s="21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="29"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="22"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="35"/>
       <c r="D220" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E220" s="37" t="s">
+      <c r="E220" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F220" s="37" t="s">
+      <c r="F220" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="30"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="23"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="36"/>
       <c r="D221" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E221" s="39" t="s">
+      <c r="E221" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F221" s="39" t="s">
+      <c r="F221" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="28" t="s">
+      <c r="A222" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B222" s="31" t="s">
+      <c r="B222" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D222" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E222" s="36" t="s">
+      <c r="E222" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F222" s="36" t="s">
+      <c r="F222" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="29"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="22"/>
+      <c r="A223" s="30"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="35"/>
       <c r="D223" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E223" s="37" t="s">
+      <c r="E223" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F223" s="37" t="s">
+      <c r="F223" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="29"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="22"/>
+      <c r="A224" s="30"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="35"/>
       <c r="D224" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E224" s="37" t="s">
+      <c r="E224" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F224" s="37" t="s">
+      <c r="F224" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="29"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="22"/>
+      <c r="A225" s="30"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="35"/>
       <c r="D225" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E225" s="37" t="s">
+      <c r="E225" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F225" s="37" t="s">
+      <c r="F225" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="29"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="22"/>
+      <c r="A226" s="30"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="35"/>
       <c r="D226" s="5" t="s">
         <v>154</v>
       </c>
@@ -5058,169 +5058,169 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="29"/>
-      <c r="B227" s="32"/>
-      <c r="C227" s="22"/>
+      <c r="A227" s="30"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="35"/>
       <c r="D227" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E227" s="37" t="s">
+      <c r="E227" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F227" s="37" t="s">
+      <c r="F227" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="29"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="22"/>
+      <c r="A228" s="30"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="35"/>
       <c r="D228" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E228" s="37" t="s">
+      <c r="E228" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F228" s="37" t="s">
+      <c r="F228" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="29"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="22"/>
+      <c r="A229" s="30"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="35"/>
       <c r="D229" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E229" s="37" t="s">
+      <c r="E229" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F229" s="37" t="s">
+      <c r="F229" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="29"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="22"/>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="30"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="35"/>
       <c r="D230" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E230" s="37" t="s">
+      <c r="E230" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F230" s="37" t="s">
+      <c r="F230" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="29"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="22"/>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="30"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E231" s="37" t="s">
+      <c r="E231" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F231" s="37" t="s">
+      <c r="F231" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="29"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="22"/>
+      <c r="A232" s="30"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="35"/>
       <c r="D232" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E232" s="37" t="s">
+      <c r="E232" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F232" s="37" t="s">
+      <c r="F232" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="30"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="23"/>
+      <c r="A233" s="31"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="36"/>
       <c r="D233" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E233" s="39" t="s">
+      <c r="E233" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F233" s="39" t="s">
+      <c r="F233" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B234" s="31" t="s">
+      <c r="B234" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D234" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E234" s="36" t="s">
+      <c r="E234" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F234" s="36" t="s">
+      <c r="F234" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="29"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="22"/>
+      <c r="A235" s="30"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E235" s="37" t="s">
+      <c r="E235" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F235" s="37" t="s">
+      <c r="F235" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="29"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="22"/>
+      <c r="A236" s="30"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="35"/>
       <c r="D236" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E236" s="37" t="s">
+      <c r="E236" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F236" s="37" t="s">
+      <c r="F236" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="29"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="22"/>
+      <c r="A237" s="30"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="35"/>
       <c r="D237" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E237" s="37" t="s">
+      <c r="E237" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F237" s="37" t="s">
+      <c r="F237" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="29"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="22"/>
+      <c r="A238" s="30"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="35"/>
       <c r="D238" s="5" t="s">
         <v>154</v>
       </c>
@@ -5232,280 +5232,280 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="29"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="22"/>
+      <c r="A239" s="30"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="35"/>
       <c r="D239" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E239" s="37" t="s">
+      <c r="E239" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F239" s="37" t="s">
+      <c r="F239" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="29"/>
-      <c r="B240" s="32"/>
-      <c r="C240" s="22"/>
+      <c r="A240" s="30"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="35"/>
       <c r="D240" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E240" s="37" t="s">
+      <c r="E240" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F240" s="37" t="s">
+      <c r="F240" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="29"/>
-      <c r="B241" s="32"/>
-      <c r="C241" s="22"/>
+      <c r="A241" s="30"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="35"/>
       <c r="D241" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E241" s="37" t="s">
+      <c r="E241" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F241" s="37" t="s">
+      <c r="F241" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="29"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="22"/>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="30"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="35"/>
       <c r="D242" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E242" s="37" t="s">
+      <c r="E242" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F242" s="37" t="s">
+      <c r="F242" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" s="29"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="22"/>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="30"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="35"/>
       <c r="D243" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E243" s="37" t="s">
+      <c r="E243" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F243" s="37" t="s">
+      <c r="F243" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="29"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="22"/>
+      <c r="A244" s="30"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="35"/>
       <c r="D244" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E244" s="37" t="s">
+      <c r="E244" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F244" s="37" t="s">
+      <c r="F244" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="30"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="23"/>
+      <c r="A245" s="31"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="36"/>
       <c r="D245" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E245" s="39" t="s">
+      <c r="E245" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F245" s="39" t="s">
+      <c r="F245" s="23" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B246" s="31" t="s">
+      <c r="B246" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D246" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E246" s="36" t="s">
+      <c r="E246" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F246" s="36" t="s">
+      <c r="F246" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="29"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="22"/>
+      <c r="A247" s="30"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="35"/>
       <c r="D247" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E247" s="37" t="s">
+      <c r="E247" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F247" s="37" t="s">
+      <c r="F247" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="29"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="22"/>
+      <c r="A248" s="30"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="35"/>
       <c r="D248" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E248" s="37" t="s">
+      <c r="E248" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F248" s="37" t="s">
+      <c r="F248" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="29"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="22"/>
+      <c r="A249" s="30"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="35"/>
       <c r="D249" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E249" s="37" t="s">
+      <c r="E249" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F249" s="37" t="s">
+      <c r="F249" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="29"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="22"/>
+      <c r="A250" s="30"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="35"/>
       <c r="D250" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E250" s="37" t="s">
+      <c r="E250" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F250" s="37" t="s">
+      <c r="F250" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="30"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="23"/>
+      <c r="A251" s="31"/>
+      <c r="B251" s="28"/>
+      <c r="C251" s="36"/>
       <c r="D251" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E251" s="39" t="s">
+      <c r="E251" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F251" s="39" t="s">
+      <c r="F251" s="23" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="28" t="s">
+      <c r="A252" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B252" s="31" t="s">
+      <c r="B252" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D252" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E252" s="36" t="s">
+      <c r="E252" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F252" s="36" t="s">
+      <c r="F252" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="29"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="22"/>
+      <c r="A253" s="30"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="35"/>
       <c r="D253" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E253" s="37" t="s">
+      <c r="E253" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F253" s="37" t="s">
+      <c r="F253" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="29"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="22"/>
+      <c r="A254" s="30"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="35"/>
       <c r="D254" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E254" s="37" t="s">
+      <c r="E254" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F254" s="37" t="s">
+      <c r="F254" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="29"/>
-      <c r="B255" s="32"/>
-      <c r="C255" s="22"/>
+      <c r="A255" s="30"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="35"/>
       <c r="D255" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E255" s="37" t="s">
+      <c r="E255" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F255" s="37" t="s">
+      <c r="F255" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="29"/>
-      <c r="B256" s="32"/>
-      <c r="C256" s="22"/>
+      <c r="A256" s="30"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="35"/>
       <c r="D256" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E256" s="37" t="s">
+      <c r="E256" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F256" s="37" t="s">
+      <c r="F256" s="21" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="30"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="23"/>
+      <c r="A257" s="31"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="36"/>
       <c r="D257" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E257" s="39" t="s">
+      <c r="E257" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F257" s="39" t="s">
+      <c r="F257" s="23" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5541,215 +5541,274 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="28" t="s">
+      <c r="A260" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B260" s="31" t="s">
+      <c r="B260" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C260" s="21" t="s">
+      <c r="C260" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D260" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E260" s="36" t="s">
+      <c r="E260" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F260" s="36" t="s">
+      <c r="F260" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="29"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="22"/>
+      <c r="A261" s="30"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="37" t="s">
+      <c r="E261" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F261" s="37" t="s">
+      <c r="F261" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="29"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="22"/>
+      <c r="A262" s="30"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E262" s="37" t="s">
+      <c r="E262" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F262" s="37" t="s">
+      <c r="F262" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="29"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="22"/>
+      <c r="A263" s="30"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="35"/>
       <c r="D263" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E263" s="37" t="s">
+      <c r="E263" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F263" s="37" t="s">
+      <c r="F263" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="29"/>
-      <c r="B264" s="32"/>
-      <c r="C264" s="22"/>
+      <c r="A264" s="30"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="35"/>
       <c r="D264" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E264" s="37" t="s">
+      <c r="E264" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F264" s="37" t="s">
+      <c r="F264" s="21" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="30"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="23"/>
+      <c r="A265" s="31"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="36"/>
       <c r="D265" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E265" s="39" t="s">
+      <c r="E265" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F265" s="39" t="s">
+      <c r="F265" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="28" t="s">
+      <c r="A266" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="31" t="s">
+      <c r="B266" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D266" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E266" s="36" t="s">
+      <c r="E266" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F266" s="36" t="s">
+      <c r="F266" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="29"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="22"/>
+      <c r="A267" s="30"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="35"/>
       <c r="D267" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E267" s="37" t="s">
+      <c r="E267" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F267" s="37" t="s">
+      <c r="F267" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="29"/>
-      <c r="B268" s="32"/>
-      <c r="C268" s="22"/>
+      <c r="A268" s="30"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="35"/>
       <c r="D268" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E268" s="37" t="s">
+      <c r="E268" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F268" s="37" t="s">
+      <c r="F268" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="29"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="22"/>
+      <c r="A269" s="30"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="35"/>
       <c r="D269" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E269" s="37" t="s">
+      <c r="E269" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F269" s="37" t="s">
+      <c r="F269" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="29"/>
-      <c r="B270" s="32"/>
-      <c r="C270" s="22"/>
+      <c r="A270" s="30"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="35"/>
       <c r="D270" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E270" s="37" t="s">
+      <c r="E270" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F270" s="37" t="s">
+      <c r="F270" s="21" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="29"/>
-      <c r="B271" s="32"/>
-      <c r="C271" s="22"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="35"/>
       <c r="D271" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E271" s="37" t="s">
+      <c r="E271" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F271" s="37" t="s">
+      <c r="F271" s="21" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="29"/>
-      <c r="B272" s="32"/>
-      <c r="C272" s="22"/>
+      <c r="A272" s="30"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="35"/>
       <c r="D272" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E272" s="37" t="s">
+      <c r="E272" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F272" s="37" t="s">
+      <c r="F272" s="21" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="30"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="23"/>
+      <c r="A273" s="31"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="36"/>
       <c r="D273" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E273" s="39" t="s">
+      <c r="E273" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F273" s="39" t="s">
+      <c r="F273" s="23" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="C252:C257"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="C175:C195"/>
+    <mergeCell ref="C196:C221"/>
+    <mergeCell ref="C222:C233"/>
+    <mergeCell ref="C234:C245"/>
+    <mergeCell ref="C74:C92"/>
+    <mergeCell ref="C93:C111"/>
+    <mergeCell ref="C112:C132"/>
+    <mergeCell ref="C133:C153"/>
+    <mergeCell ref="C154:C174"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C73"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B58:B73"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A74:A92"/>
+    <mergeCell ref="B74:B92"/>
+    <mergeCell ref="B93:B111"/>
+    <mergeCell ref="A93:A111"/>
+    <mergeCell ref="B112:B132"/>
+    <mergeCell ref="A112:A132"/>
+    <mergeCell ref="B133:B153"/>
+    <mergeCell ref="A133:A153"/>
+    <mergeCell ref="B154:B174"/>
+    <mergeCell ref="A154:A174"/>
+    <mergeCell ref="B175:B195"/>
+    <mergeCell ref="A175:A195"/>
+    <mergeCell ref="B196:B221"/>
+    <mergeCell ref="A196:A221"/>
+    <mergeCell ref="B222:B233"/>
+    <mergeCell ref="A222:A233"/>
     <mergeCell ref="B260:B265"/>
     <mergeCell ref="A260:A265"/>
     <mergeCell ref="B266:B273"/>
@@ -5760,65 +5819,6 @@
     <mergeCell ref="A246:A251"/>
     <mergeCell ref="B252:B257"/>
     <mergeCell ref="A252:A257"/>
-    <mergeCell ref="B175:B195"/>
-    <mergeCell ref="A175:A195"/>
-    <mergeCell ref="B196:B221"/>
-    <mergeCell ref="A196:A221"/>
-    <mergeCell ref="B222:B233"/>
-    <mergeCell ref="A222:A233"/>
-    <mergeCell ref="B112:B132"/>
-    <mergeCell ref="A112:A132"/>
-    <mergeCell ref="B133:B153"/>
-    <mergeCell ref="A133:A153"/>
-    <mergeCell ref="B154:B174"/>
-    <mergeCell ref="A154:A174"/>
-    <mergeCell ref="B58:B73"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A74:A92"/>
-    <mergeCell ref="B74:B92"/>
-    <mergeCell ref="B93:B111"/>
-    <mergeCell ref="A93:A111"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C73"/>
-    <mergeCell ref="C74:C92"/>
-    <mergeCell ref="C93:C111"/>
-    <mergeCell ref="C112:C132"/>
-    <mergeCell ref="C133:C153"/>
-    <mergeCell ref="C154:C174"/>
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="C252:C257"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="C175:C195"/>
-    <mergeCell ref="C196:C221"/>
-    <mergeCell ref="C222:C233"/>
-    <mergeCell ref="C234:C245"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList and TestCases.xlsx
+++ b/CheckList and TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplom\diplom_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813833F1-A4AA-4226-A23C-EDF5090964C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF01EA-BA56-48AD-8251-E54DC706808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7A85012-1015-4CC9-BFD3-B3063BE90C24}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Фактический результат ручного прогона</t>
-  </si>
-  <si>
     <t>Низкий</t>
   </si>
   <si>
@@ -659,6 +656,9 @@
   </si>
   <si>
     <t xml:space="preserve">V </t>
+  </si>
+  <si>
+    <t>Статус ручного прогона</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,7 +943,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -955,41 +994,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484FC60-8F18-4D49-A349-26DCE5BEE52D}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1325,24 +1340,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>130</v>
@@ -1790,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B1990-635E-4C06-A037-B84BCC584509}">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E283" sqref="E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1814,8 @@
     <col min="2" max="2" width="27.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="111.5703125" customWidth="1"/>
-    <col min="5" max="6" width="95.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="95.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1816,7 +1832,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1834,700 +1850,700 @@
       <c r="E4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>136</v>
+      <c r="F4" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>138</v>
+      <c r="C5" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>138</v>
+      <c r="C11" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>139</v>
+      <c r="C17" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>139</v>
+      <c r="C22" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>139</v>
+      <c r="C27" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>137</v>
+      <c r="C31" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>137</v>
+      <c r="C37" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>138</v>
+      <c r="C43" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2555,7 @@
       </c>
       <c r="C51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
@@ -2557,2956 +2573,2956 @@
       <c r="E52" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>136</v>
+      <c r="F52" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>138</v>
+      <c r="C53" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E56" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>156</v>
+      <c r="F57" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>138</v>
+      <c r="C58" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>156</v>
+      <c r="F62" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="35"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="35"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="35"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="35"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="35"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E70" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>166</v>
+      <c r="F71" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="35"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="40"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="34" t="s">
-        <v>138</v>
+      <c r="C74" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="35"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="35"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="35"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E77" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>156</v>
+      <c r="F78" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="35"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="35"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="35"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="35"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="35"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="35"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="35"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="30"/>
       <c r="D85" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="35"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="35"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="35"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="35"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="35"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="35"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E91" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>170</v>
+      <c r="F92" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>138</v>
+      <c r="C93" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="35"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="35"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="35"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E96" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F96" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>156</v>
+      <c r="F97" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="35"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="35"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="35"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="35"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="35"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="35"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="30"/>
       <c r="D103" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="35"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="35"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="35"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="30"/>
       <c r="D106" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="35"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="30"/>
       <c r="D107" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="35"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="30"/>
       <c r="D108" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="35"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="30"/>
       <c r="D109" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="35"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="30"/>
       <c r="D110" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="36"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="19" t="s">
         <v>88</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="34" t="s">
-        <v>139</v>
+      <c r="C112" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="30"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="35"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="30"/>
       <c r="D113" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="35"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="30"/>
       <c r="D114" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="35"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="30"/>
       <c r="D115" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E115" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="37"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>156</v>
+      <c r="F116" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="35"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="30"/>
       <c r="D117" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="35"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="35"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="30"/>
       <c r="D119" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="35"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="35"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="35"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="35"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="35"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="35"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="35"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="35"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="30"/>
       <c r="D127" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="35"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="30"/>
       <c r="D128" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F128" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="F128" s="45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="35"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="35"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="30"/>
       <c r="D130" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="35"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="30"/>
       <c r="D131" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="36"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="34" t="s">
-        <v>139</v>
+      <c r="C133" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F133" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="35"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="30"/>
       <c r="D134" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="35"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="30"/>
       <c r="D135" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="35"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="30"/>
       <c r="D136" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E136" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="37"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F136" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>156</v>
+      <c r="F137" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="35"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="30"/>
       <c r="D138" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F138" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="35"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="30"/>
       <c r="D139" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="35"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="30"/>
       <c r="D140" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F140" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="35"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="30"/>
       <c r="D141" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="30"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="35"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="30"/>
       <c r="D142" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="30"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="35"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="30"/>
       <c r="D143" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F143" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="35"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="30"/>
       <c r="D144" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="30"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="35"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="30"/>
       <c r="D145" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F145" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="30"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="35"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="30"/>
       <c r="D146" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F146" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="30"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="35"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="30"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="35"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F148" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="35"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="30"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="35"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="30"/>
       <c r="D150" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E150" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E151" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F150" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="30"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>179</v>
+      <c r="F151" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="35"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="30"/>
       <c r="D152" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="31"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="36"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
+      <c r="A154" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="34" t="s">
-        <v>139</v>
+      <c r="C154" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E154" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F154" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="30"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="35"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="30"/>
       <c r="D155" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="30"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="35"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="30"/>
       <c r="D156" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="30"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="35"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="30"/>
       <c r="D157" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E157" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="37"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F157" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="30"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F158" s="17" t="s">
-        <v>156</v>
+      <c r="F158" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="30"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="35"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="30"/>
       <c r="D159" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F159" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="30"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="35"/>
+      <c r="A160" s="37"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="30"/>
       <c r="D160" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="30"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="35"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="30"/>
       <c r="D161" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F161" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F161" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="30"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="35"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="30"/>
       <c r="D162" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="35"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="30"/>
       <c r="D163" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="30"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="35"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="30"/>
       <c r="D164" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="30"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="35"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="30"/>
       <c r="D165" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F165" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="30"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="35"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="30"/>
       <c r="D166" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="30"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="35"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="30"/>
       <c r="D167" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F167" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="30"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="35"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="30"/>
       <c r="D168" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F168" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="30"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="35"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="30"/>
       <c r="D169" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="30"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="35"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="30"/>
       <c r="D170" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="30"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="35"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="30"/>
       <c r="D171" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F171" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="35"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="30"/>
       <c r="D172" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E172" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E172" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>182</v>
+      <c r="F172" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="30"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="35"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="30"/>
       <c r="D173" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F173" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="31"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="36"/>
+      <c r="A174" s="38"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="31"/>
       <c r="D174" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E174" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F174" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C175" s="34" t="s">
-        <v>139</v>
+      <c r="C175" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F175" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F175" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="30"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="35"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="30"/>
       <c r="D176" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F176" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="30"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="35"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="30"/>
       <c r="D177" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F177" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="30"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="35"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="30"/>
       <c r="D178" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E178" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="37"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E179" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F178" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="30"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E179" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>156</v>
+      <c r="F179" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="30"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="35"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="30"/>
       <c r="D180" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="30"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="35"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="30"/>
       <c r="D181" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F181" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="30"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="35"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="30"/>
       <c r="D182" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F182" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F182" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="30"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="35"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="30"/>
       <c r="D183" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="30"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="35"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="30"/>
       <c r="D184" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F184" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="30"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="35"/>
+      <c r="A185" s="37"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="30"/>
       <c r="D185" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F185" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="30"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="35"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="30"/>
       <c r="D186" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F186" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="30"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="35"/>
+      <c r="A187" s="37"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="30"/>
       <c r="D187" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F187" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="30"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="35"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="30"/>
       <c r="D188" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F188" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F188" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="30"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="35"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="30"/>
       <c r="D189" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F189" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F189" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="30"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="35"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="30"/>
       <c r="D190" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F190" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="30"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="35"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="30"/>
       <c r="D191" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F191" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F191" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="30"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="35"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="30"/>
       <c r="D192" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F192" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="30"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="35"/>
+      <c r="A193" s="37"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="30"/>
       <c r="D193" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F193" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="30"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="35"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="30"/>
       <c r="D194" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F194" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="33"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="40"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="42"/>
+      <c r="C195" s="32"/>
       <c r="D195" s="15" t="s">
         <v>103</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F195" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="29" t="s">
+      <c r="A196" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C196" s="34" t="s">
-        <v>137</v>
+      <c r="C196" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="D196" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F196" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="30"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="35"/>
+      <c r="A197" s="37"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="30"/>
       <c r="D197" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F197" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="30"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="35"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="30"/>
       <c r="D198" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F198" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F198" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="30"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="35"/>
+      <c r="A199" s="37"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="30"/>
       <c r="D199" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E199" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="37"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E200" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F199" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="30"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="35"/>
-      <c r="D200" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E200" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F200" s="21" t="s">
-        <v>156</v>
+      <c r="F200" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="30"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="35"/>
+      <c r="A201" s="37"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="30"/>
       <c r="D201" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F201" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="30"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="35"/>
+      <c r="A202" s="37"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="30"/>
       <c r="D202" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F202" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="30"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="35"/>
+      <c r="A203" s="37"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="30"/>
       <c r="D203" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F203" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="30"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="35"/>
+      <c r="A204" s="37"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="30"/>
       <c r="D204" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="30"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="35"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="30"/>
       <c r="D205" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F205" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="30"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="35"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="30"/>
       <c r="D206" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E206" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F206" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F206" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="30"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="35"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="30"/>
       <c r="D207" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F207" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="30"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="35"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="30"/>
       <c r="D208" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F208" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="30"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="35"/>
+      <c r="A209" s="37"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="30"/>
       <c r="D209" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="30"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="35"/>
+      <c r="A210" s="37"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="30"/>
       <c r="D210" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="30"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="35"/>
+      <c r="A211" s="37"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="30"/>
       <c r="D211" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F211" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="30"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="35"/>
+      <c r="A212" s="37"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="30"/>
       <c r="D212" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="30"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="35"/>
+      <c r="A213" s="37"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="30"/>
       <c r="D213" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="35"/>
+      <c r="A214" s="37"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="30"/>
       <c r="D214" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F214" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="30"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="35"/>
+      <c r="A215" s="37"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="30"/>
       <c r="D215" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F215" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="30"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="35"/>
+      <c r="A216" s="37"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="30"/>
       <c r="D216" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F216" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="30"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="35"/>
+      <c r="A217" s="37"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="30"/>
       <c r="D217" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F217" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="30"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="35"/>
+      <c r="A218" s="37"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="30"/>
       <c r="D218" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F218" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="30"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="35"/>
+      <c r="A219" s="37"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="30"/>
       <c r="D219" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F219" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="35"/>
+      <c r="A220" s="37"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="30"/>
       <c r="D220" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F220" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="31"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="36"/>
+      <c r="A221" s="38"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="31"/>
       <c r="D221" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F221" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="29" t="s">
+      <c r="A222" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B222" s="26" t="s">
+      <c r="B222" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C222" s="34" t="s">
-        <v>139</v>
+      <c r="C222" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D222" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E222" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F222" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="30"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="35"/>
+      <c r="A223" s="37"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="30"/>
       <c r="D223" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F223" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="30"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="35"/>
+      <c r="A224" s="37"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="30"/>
       <c r="D224" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F224" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F224" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="30"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="35"/>
+      <c r="A225" s="37"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="30"/>
       <c r="D225" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E225" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F225" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E226" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F225" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="30"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="35"/>
-      <c r="D226" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E226" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F226" s="17" t="s">
-        <v>156</v>
+      <c r="F226" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="30"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="35"/>
+      <c r="A227" s="37"/>
+      <c r="B227" s="40"/>
+      <c r="C227" s="30"/>
       <c r="D227" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F227" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F227" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="30"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="35"/>
+      <c r="A228" s="37"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="30"/>
       <c r="D228" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F228" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F228" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="30"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="35"/>
+      <c r="A229" s="37"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="30"/>
       <c r="D229" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="F229" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="F229" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="30"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="35"/>
+      <c r="A230" s="37"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="30"/>
       <c r="D230" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F230" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="F230" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="30"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="35"/>
+      <c r="A231" s="37"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="30"/>
       <c r="D231" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F231" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="F231" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="30"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="35"/>
+      <c r="A232" s="37"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="30"/>
       <c r="D232" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F232" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="F232" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="31"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="36"/>
+      <c r="A233" s="38"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="19" t="s">
         <v>115</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F233" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="29" t="s">
+      <c r="A234" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B234" s="26" t="s">
+      <c r="B234" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C234" s="34" t="s">
-        <v>139</v>
+      <c r="C234" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="D234" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E234" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F234" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="30"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="35"/>
+      <c r="A235" s="37"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="30"/>
       <c r="D235" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F235" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F235" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="30"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="35"/>
+      <c r="A236" s="37"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="30"/>
       <c r="D236" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F236" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F236" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="30"/>
-      <c r="B237" s="27"/>
-      <c r="C237" s="35"/>
+      <c r="A237" s="37"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="30"/>
       <c r="D237" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E237" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F237" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="37"/>
+      <c r="B238" s="40"/>
+      <c r="C238" s="30"/>
+      <c r="D238" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E238" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F237" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="30"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="35"/>
-      <c r="D238" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E238" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F238" s="17" t="s">
-        <v>156</v>
+      <c r="F238" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="30"/>
-      <c r="B239" s="27"/>
-      <c r="C239" s="35"/>
+      <c r="A239" s="37"/>
+      <c r="B239" s="40"/>
+      <c r="C239" s="30"/>
       <c r="D239" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F239" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F239" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="30"/>
-      <c r="B240" s="27"/>
-      <c r="C240" s="35"/>
+      <c r="A240" s="37"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="30"/>
       <c r="D240" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F240" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="F240" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="30"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="35"/>
+      <c r="A241" s="37"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="30"/>
       <c r="D241" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E241" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="F241" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="F241" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="30"/>
-      <c r="B242" s="27"/>
-      <c r="C242" s="35"/>
+      <c r="A242" s="37"/>
+      <c r="B242" s="40"/>
+      <c r="C242" s="30"/>
       <c r="D242" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F242" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="F242" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="30"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="35"/>
+      <c r="A243" s="37"/>
+      <c r="B243" s="40"/>
+      <c r="C243" s="30"/>
       <c r="D243" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F243" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="F243" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="30"/>
-      <c r="B244" s="27"/>
-      <c r="C244" s="35"/>
+      <c r="A244" s="37"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="30"/>
       <c r="D244" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F244" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="F244" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="31"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="36"/>
+      <c r="A245" s="38"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="31"/>
       <c r="D245" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F245" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="29" t="s">
+      <c r="A246" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B246" s="26" t="s">
+      <c r="B246" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="34" t="s">
-        <v>137</v>
+      <c r="C246" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="D246" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E246" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F246" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="30"/>
-      <c r="B247" s="27"/>
-      <c r="C247" s="35"/>
+      <c r="A247" s="37"/>
+      <c r="B247" s="40"/>
+      <c r="C247" s="30"/>
       <c r="D247" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F247" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F247" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="30"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="35"/>
+      <c r="A248" s="37"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="30"/>
       <c r="D248" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E248" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F248" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F248" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="30"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="35"/>
+      <c r="A249" s="37"/>
+      <c r="B249" s="40"/>
+      <c r="C249" s="30"/>
       <c r="D249" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E249" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F249" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="F249" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="30"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="35"/>
+      <c r="A250" s="37"/>
+      <c r="B250" s="40"/>
+      <c r="C250" s="30"/>
       <c r="D250" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E250" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F250" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="F250" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="31"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="36"/>
+      <c r="A251" s="38"/>
+      <c r="B251" s="41"/>
+      <c r="C251" s="31"/>
       <c r="D251" s="19" t="s">
         <v>118</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F251" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="29" t="s">
+      <c r="A252" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B252" s="26" t="s">
+      <c r="B252" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C252" s="34" t="s">
-        <v>137</v>
+      <c r="C252" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="D252" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E252" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F252" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="30"/>
-      <c r="B253" s="27"/>
-      <c r="C253" s="35"/>
+      <c r="A253" s="37"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="30"/>
       <c r="D253" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E253" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F253" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F253" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="30"/>
-      <c r="B254" s="27"/>
-      <c r="C254" s="35"/>
+      <c r="A254" s="37"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="30"/>
       <c r="D254" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E254" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F254" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F254" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="30"/>
-      <c r="B255" s="27"/>
-      <c r="C255" s="35"/>
+      <c r="A255" s="37"/>
+      <c r="B255" s="40"/>
+      <c r="C255" s="30"/>
       <c r="D255" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E255" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F255" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="F255" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="30"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="35"/>
+      <c r="A256" s="37"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="30"/>
       <c r="D256" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E256" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F256" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="F256" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="31"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="36"/>
+      <c r="A257" s="38"/>
+      <c r="B257" s="41"/>
+      <c r="C257" s="31"/>
       <c r="D257" s="19" t="s">
         <v>118</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F257" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="F257" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5518,7 +5534,7 @@
       </c>
       <c r="C258" s="12"/>
       <c r="E258" s="12"/>
-      <c r="F258" s="12"/>
+      <c r="F258" s="14"/>
     </row>
     <row r="259" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="15" t="s">
@@ -5536,279 +5552,220 @@
       <c r="E259" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F259" s="17" t="s">
+      <c r="F259" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B260" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C260" s="29" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B260" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C260" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="D260" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F260" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="30"/>
-      <c r="B261" s="27"/>
-      <c r="C261" s="35"/>
+      <c r="A261" s="37"/>
+      <c r="B261" s="40"/>
+      <c r="C261" s="30"/>
       <c r="D261" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F261" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F261" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="30"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="35"/>
+      <c r="A262" s="37"/>
+      <c r="B262" s="40"/>
+      <c r="C262" s="30"/>
       <c r="D262" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F262" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F262" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="30"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="35"/>
+      <c r="A263" s="37"/>
+      <c r="B263" s="40"/>
+      <c r="C263" s="30"/>
       <c r="D263" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F263" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="F263" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="30"/>
-      <c r="B264" s="27"/>
-      <c r="C264" s="35"/>
+      <c r="A264" s="37"/>
+      <c r="B264" s="40"/>
+      <c r="C264" s="30"/>
       <c r="D264" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E264" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F264" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="38"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="31"/>
+      <c r="D265" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E265" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F264" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="31"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="36"/>
-      <c r="D265" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E265" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F265" s="23" t="s">
-        <v>202</v>
+      <c r="F265" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="29" t="s">
+      <c r="A266" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B266" s="26" t="s">
+      <c r="B266" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C266" s="34" t="s">
-        <v>137</v>
+      <c r="C266" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="D266" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E266" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F266" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="30"/>
-      <c r="B267" s="27"/>
-      <c r="C267" s="35"/>
+      <c r="A267" s="37"/>
+      <c r="B267" s="40"/>
+      <c r="C267" s="30"/>
       <c r="D267" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F267" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F267" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="30"/>
-      <c r="B268" s="27"/>
-      <c r="C268" s="35"/>
+      <c r="A268" s="37"/>
+      <c r="B268" s="40"/>
+      <c r="C268" s="30"/>
       <c r="D268" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F268" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="F268" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="30"/>
-      <c r="B269" s="27"/>
-      <c r="C269" s="35"/>
+      <c r="A269" s="37"/>
+      <c r="B269" s="40"/>
+      <c r="C269" s="30"/>
       <c r="D269" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F269" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="F269" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="30"/>
-      <c r="B270" s="27"/>
-      <c r="C270" s="35"/>
+      <c r="A270" s="37"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="30"/>
       <c r="D270" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F270" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="F270" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="30"/>
-      <c r="B271" s="27"/>
-      <c r="C271" s="35"/>
+      <c r="A271" s="37"/>
+      <c r="B271" s="40"/>
+      <c r="C271" s="30"/>
       <c r="D271" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F271" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="F271" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="30"/>
-      <c r="B272" s="27"/>
-      <c r="C272" s="35"/>
+      <c r="A272" s="37"/>
+      <c r="B272" s="40"/>
+      <c r="C272" s="30"/>
       <c r="D272" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F272" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="F272" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="31"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="36"/>
+      <c r="A273" s="38"/>
+      <c r="B273" s="41"/>
+      <c r="C273" s="31"/>
       <c r="D273" s="19" t="s">
         <v>125</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F273" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="F273" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="C252:C257"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="C175:C195"/>
-    <mergeCell ref="C196:C221"/>
-    <mergeCell ref="C222:C233"/>
-    <mergeCell ref="C234:C245"/>
-    <mergeCell ref="C74:C92"/>
-    <mergeCell ref="C93:C111"/>
-    <mergeCell ref="C112:C132"/>
-    <mergeCell ref="C133:C153"/>
-    <mergeCell ref="C154:C174"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C73"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B58:B73"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A74:A92"/>
-    <mergeCell ref="B74:B92"/>
-    <mergeCell ref="B93:B111"/>
-    <mergeCell ref="A93:A111"/>
-    <mergeCell ref="B112:B132"/>
-    <mergeCell ref="A112:A132"/>
-    <mergeCell ref="B133:B153"/>
-    <mergeCell ref="A133:A153"/>
-    <mergeCell ref="B154:B174"/>
-    <mergeCell ref="A154:A174"/>
-    <mergeCell ref="B175:B195"/>
-    <mergeCell ref="A175:A195"/>
-    <mergeCell ref="B196:B221"/>
-    <mergeCell ref="A196:A221"/>
-    <mergeCell ref="B222:B233"/>
-    <mergeCell ref="A222:A233"/>
     <mergeCell ref="B260:B265"/>
     <mergeCell ref="A260:A265"/>
     <mergeCell ref="B266:B273"/>
@@ -5819,6 +5776,65 @@
     <mergeCell ref="A246:A251"/>
     <mergeCell ref="B252:B257"/>
     <mergeCell ref="A252:A257"/>
+    <mergeCell ref="B175:B195"/>
+    <mergeCell ref="A175:A195"/>
+    <mergeCell ref="B196:B221"/>
+    <mergeCell ref="A196:A221"/>
+    <mergeCell ref="B222:B233"/>
+    <mergeCell ref="A222:A233"/>
+    <mergeCell ref="B112:B132"/>
+    <mergeCell ref="A112:A132"/>
+    <mergeCell ref="B133:B153"/>
+    <mergeCell ref="A133:A153"/>
+    <mergeCell ref="B154:B174"/>
+    <mergeCell ref="A154:A174"/>
+    <mergeCell ref="B58:B73"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A74:A92"/>
+    <mergeCell ref="B74:B92"/>
+    <mergeCell ref="B93:B111"/>
+    <mergeCell ref="A93:A111"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C73"/>
+    <mergeCell ref="C74:C92"/>
+    <mergeCell ref="C93:C111"/>
+    <mergeCell ref="C112:C132"/>
+    <mergeCell ref="C133:C153"/>
+    <mergeCell ref="C154:C174"/>
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="C252:C257"/>
+    <mergeCell ref="C260:C265"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="C175:C195"/>
+    <mergeCell ref="C196:C221"/>
+    <mergeCell ref="C222:C233"/>
+    <mergeCell ref="C234:C245"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
